--- a/กราฟ.xlsx
+++ b/กราฟ.xlsx
@@ -797,8 +797,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41436215794133641"/>
-          <c:y val="0.42032413600868951"/>
+          <c:x val="0.32821698104047997"/>
+          <c:y val="2.1766722758573161E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1260,11 +1260,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="207695232"/>
-        <c:axId val="207697024"/>
+        <c:axId val="204156288"/>
+        <c:axId val="204158080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207695232"/>
+        <c:axId val="204156288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1273,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207697024"/>
+        <c:crossAx val="204158080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1281,7 +1281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207697024"/>
+        <c:axId val="204158080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1293,7 +1293,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207695232"/>
+        <c:crossAx val="204156288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1610,7 +1610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5731,7 @@
         <v>126</v>
       </c>
       <c r="C120">
-        <f>COUNTIF($C$2:$C$104,$B120)</f>
+        <f t="shared" ref="C120:C138" si="0">COUNTIF($C$2:$C$104,$B120)</f>
         <v>11</v>
       </c>
       <c r="F120" s="18"/>
@@ -5742,7 +5742,7 @@
         <v>134</v>
       </c>
       <c r="C121">
-        <f>COUNTIF($C$2:$C$104,$B121)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F121" s="18"/>
@@ -5753,7 +5753,7 @@
         <v>161</v>
       </c>
       <c r="C122">
-        <f>COUNTIF($C$2:$C$104,$B122)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F122" s="18"/>
@@ -5764,7 +5764,7 @@
         <v>19</v>
       </c>
       <c r="C123">
-        <f>COUNTIF($C$2:$C$104,$B123)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F123" s="18"/>
@@ -5775,7 +5775,7 @@
         <v>158</v>
       </c>
       <c r="C124">
-        <f>COUNTIF($C$2:$C$104,$B124)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F124" s="18"/>
@@ -5786,7 +5786,7 @@
         <v>18</v>
       </c>
       <c r="C125">
-        <f>COUNTIF($C$2:$C$104,$B125)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F125" s="18"/>
@@ -5797,7 +5797,7 @@
         <v>145</v>
       </c>
       <c r="C126">
-        <f>COUNTIF($C$2:$C$104,$B126)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F126" s="18"/>
@@ -5808,7 +5808,7 @@
         <v>164</v>
       </c>
       <c r="C127">
-        <f>COUNTIF($C$2:$C$104,$B127)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F127" s="18"/>
@@ -5819,7 +5819,7 @@
         <v>141</v>
       </c>
       <c r="C128">
-        <f>COUNTIF($C$2:$C$104,$B128)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F128" s="18"/>
@@ -5830,7 +5830,7 @@
         <v>168</v>
       </c>
       <c r="C129">
-        <f>COUNTIF($C$2:$C$104,$B129)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F129" s="18"/>
@@ -5841,7 +5841,7 @@
         <v>117</v>
       </c>
       <c r="C130">
-        <f>COUNTIF($C$2:$C$104,$B130)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
         <v>154</v>
       </c>
       <c r="C131">
-        <f>COUNTIF($C$2:$C$104,$B131)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
         <v>20</v>
       </c>
       <c r="C132">
-        <f>COUNTIF($C$2:$C$104,$B132)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5868,7 +5868,7 @@
         <v>15</v>
       </c>
       <c r="C133">
-        <f>COUNTIF($C$2:$C$104,$B133)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
         <v>112</v>
       </c>
       <c r="C134">
-        <f>COUNTIF($C$2:$C$104,$B134)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
         <v>108</v>
       </c>
       <c r="C135">
-        <f>COUNTIF($C$2:$C$104,$B135)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
         <v>119</v>
       </c>
       <c r="C136">
-        <f>COUNTIF($C$2:$C$104,$B136)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5904,7 +5904,7 @@
         <v>123</v>
       </c>
       <c r="C137">
-        <f>COUNTIF($C$2:$C$104,$B137)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
         <v>21</v>
       </c>
       <c r="C138">
-        <f>COUNTIF($C$2:$C$104,$B138)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>

--- a/กราฟ.xlsx
+++ b/กราฟ.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{123CD438-D686-485A-9B50-B1F388B09B71}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="183">
   <si>
     <t>NO</t>
   </si>
@@ -72,9 +79,6 @@
     <t>เครื่องดื่ม</t>
   </si>
   <si>
-    <t>เสื้อผ้า</t>
-  </si>
-  <si>
     <t>เครื่องสำอาง</t>
   </si>
   <si>
@@ -351,9 +355,6 @@
     <t>บ้านเขียงเกสเอาส์</t>
   </si>
   <si>
-    <t>ร้านอาหาร/เกสเฮาส์</t>
-  </si>
-  <si>
     <t>อาหารตามสั่ง/เครื่องดื่ม</t>
   </si>
   <si>
@@ -382,9 +383,6 @@
   </si>
   <si>
     <t>สบายมุมศิลป์</t>
-  </si>
-  <si>
-    <t>ตกแต่งบ้าน</t>
   </si>
   <si>
     <t>ป้ายไม้แกะสลัก</t>
@@ -588,7 +586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,7 +732,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,7 +762,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
@@ -835,6 +833,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -853,6 +856,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -868,6 +876,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -883,6 +896,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -898,6 +916,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -913,6 +936,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -928,6 +956,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -943,6 +976,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -958,6 +996,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -975,6 +1018,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -992,6 +1040,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1007,6 +1060,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1022,24 +1080,14 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1052,39 +1100,14 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
+            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1097,9 +1120,14 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="19"/>
+            <c:idx val="16"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1112,12 +1140,17 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-7D58-4F53-9B35-C591B35157E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$119:$B$138</c:f>
+              <c:f>Sheet1!$B$119:$B$135</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>อาหารและเครื่องดื่ม</c:v>
                 </c:pt>
@@ -1161,21 +1194,12 @@
                   <c:v>หนังสือ</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>เสื้อผ้า</c:v>
+                  <c:v>สักลายฝเพ้นท์ลาย</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>สักลายฝเพ้นท์ลาย</c:v>
+                  <c:v>เครื่องประดับ/ตกแต่งบ้าน</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>ร้านอาหาร/เกสเฮาส์</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ตกแต่งบ้าน</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>เครื่องประดับ/ตกแต่งบ้าน</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>ของฝาก</c:v>
                 </c:pt>
               </c:strCache>
@@ -1183,10 +1207,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$119:$C$138</c:f>
+              <c:f>Sheet1!$C$119:$C$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -1230,26 +1254,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-7D58-4F53-9B35-C591B35157E4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1270,6 +1290,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1300,7 +1321,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1332,12 +1352,18 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>89204</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>21167</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="แผนภูมิ 11"/>
+        <xdr:cNvPr id="12" name="แผนภูมิ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1610,18 +1636,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5C5CDD-2931-46C1-9113-37AD4B53E094}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1702,23 +1742,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5">
         <v>3</v>
@@ -1741,23 +1781,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="5">
         <v>3</v>
@@ -1780,23 +1820,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5">
         <v>3</v>
@@ -1819,23 +1859,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5">
         <v>3</v>
@@ -1858,23 +1898,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -1897,23 +1937,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
@@ -1936,23 +1976,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5">
         <v>3</v>
@@ -1975,23 +2015,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5">
         <v>3</v>
@@ -2015,23 +2055,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="5">
         <v>3</v>
@@ -2055,23 +2095,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
@@ -2095,23 +2135,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="5">
         <v>3</v>
@@ -2135,23 +2175,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="5">
         <v>3</v>
@@ -2175,23 +2215,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="5">
         <v>3</v>
@@ -2215,23 +2255,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="5">
         <v>3</v>
@@ -2255,23 +2295,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="5">
         <v>3</v>
@@ -2295,23 +2335,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="5">
         <v>3</v>
@@ -2335,23 +2375,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="5">
         <v>3</v>
@@ -2375,23 +2415,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="5">
         <v>3</v>
@@ -2415,23 +2455,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="5">
         <v>3</v>
@@ -2455,23 +2495,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="5">
         <v>3</v>
@@ -2495,23 +2535,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="5">
         <v>3</v>
@@ -2535,23 +2575,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="5">
         <v>3</v>
@@ -2574,23 +2614,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" s="5">
         <v>3</v>
@@ -2613,23 +2653,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="5">
         <v>3</v>
@@ -2652,23 +2692,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" s="5">
         <v>3</v>
@@ -2691,23 +2731,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="5">
         <v>3</v>
@@ -2730,23 +2770,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="5">
         <v>3</v>
@@ -2769,23 +2809,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I29" s="5">
         <v>3</v>
@@ -2808,23 +2848,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="5">
         <v>3</v>
@@ -2847,23 +2887,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I31" s="5">
         <v>3</v>
@@ -2886,23 +2926,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32" s="5">
         <v>3</v>
@@ -2925,23 +2965,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" s="5">
         <v>3</v>
@@ -2964,23 +3004,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="5">
         <v>3</v>
@@ -3003,23 +3043,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" s="5">
         <v>3</v>
@@ -3042,23 +3082,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36" s="5">
         <v>3</v>
@@ -3081,23 +3121,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="5">
         <v>3</v>
@@ -3120,23 +3160,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" s="5">
         <v>3</v>
@@ -3159,23 +3199,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39" s="5">
         <v>3</v>
@@ -3198,23 +3238,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" s="5">
         <v>3</v>
@@ -3237,23 +3277,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I41" s="5">
         <v>3</v>
@@ -3276,23 +3316,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" s="5">
         <v>3</v>
@@ -3315,23 +3355,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="5">
         <v>3</v>
@@ -3354,23 +3394,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" s="5">
         <v>3</v>
@@ -3393,23 +3433,23 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" s="5">
         <v>3</v>
@@ -3432,23 +3472,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" s="5">
         <v>3</v>
@@ -3471,23 +3511,23 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I47" s="5">
         <v>3</v>
@@ -3510,23 +3550,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I48" s="5">
         <v>3</v>
@@ -3549,23 +3589,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49" s="5">
         <v>3</v>
@@ -3588,23 +3628,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" s="5">
         <v>3</v>
@@ -3627,23 +3667,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I51" s="5">
         <v>3</v>
@@ -3666,23 +3706,23 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I52" s="5">
         <v>3</v>
@@ -3705,25 +3745,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="E53" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I53" s="5">
         <v>3</v>
@@ -3746,25 +3786,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="F54" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I54" s="5">
         <v>3</v>
@@ -3787,23 +3827,23 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I55" s="5">
         <v>3</v>
@@ -3826,23 +3866,23 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="5">
         <v>2</v>
@@ -3865,23 +3905,23 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I57" s="5">
         <v>1</v>
@@ -3904,23 +3944,23 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I58" s="5">
         <v>1</v>
@@ -3943,23 +3983,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I59" s="5">
         <v>2</v>
@@ -3982,23 +4022,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I60" s="5">
         <v>2</v>
@@ -4008,30 +4048,32 @@
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
+      <c r="M60" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I61" s="5">
         <v>2</v>
@@ -4045,30 +4087,32 @@
       <c r="L61" s="5">
         <v>2</v>
       </c>
-      <c r="M61" s="5"/>
+      <c r="M61" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I62" s="5">
         <v>2</v>
@@ -4082,30 +4126,32 @@
       <c r="L62" s="5">
         <v>2</v>
       </c>
-      <c r="M62" s="5"/>
+      <c r="M62" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C63" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I63" s="5">
         <v>2</v>
@@ -4119,30 +4165,32 @@
       <c r="L63" s="5">
         <v>2</v>
       </c>
-      <c r="M63" s="5"/>
+      <c r="M63" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I64" s="5">
         <v>2</v>
@@ -4156,30 +4204,32 @@
       <c r="L64" s="5">
         <v>2</v>
       </c>
-      <c r="M64" s="5"/>
+      <c r="M64" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I65" s="5">
         <v>2</v>
@@ -4193,30 +4243,32 @@
       <c r="L65" s="5">
         <v>2</v>
       </c>
-      <c r="M65" s="5"/>
+      <c r="M65" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I66" s="5">
         <v>2</v>
@@ -4230,30 +4282,32 @@
       <c r="L66" s="5">
         <v>2</v>
       </c>
-      <c r="M66" s="5"/>
+      <c r="M66" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I67" s="5">
         <v>2</v>
@@ -4267,30 +4321,32 @@
       <c r="L67" s="5">
         <v>2</v>
       </c>
-      <c r="M67" s="5"/>
+      <c r="M67" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
@@ -4304,30 +4360,32 @@
       <c r="L68" s="5">
         <v>2</v>
       </c>
-      <c r="M68" s="5"/>
+      <c r="M68" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -4341,30 +4399,32 @@
       <c r="L69" s="5">
         <v>2</v>
       </c>
-      <c r="M69" s="5"/>
+      <c r="M69" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -4378,30 +4438,32 @@
       <c r="L70" s="5">
         <v>2</v>
       </c>
-      <c r="M70" s="4"/>
+      <c r="M70" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
@@ -4415,30 +4477,32 @@
       <c r="L71" s="5">
         <v>2</v>
       </c>
-      <c r="M71" s="5"/>
+      <c r="M71" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -4452,30 +4516,32 @@
       <c r="L72" s="5">
         <v>2</v>
       </c>
-      <c r="M72" s="5"/>
+      <c r="M72" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4489,30 +4555,32 @@
       <c r="L73" s="5">
         <v>2</v>
       </c>
-      <c r="M73" s="5"/>
+      <c r="M73" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4526,30 +4594,32 @@
       <c r="L74" s="5">
         <v>2</v>
       </c>
-      <c r="M74" s="5"/>
+      <c r="M74" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I75" s="5">
         <v>2</v>
@@ -4563,30 +4633,32 @@
       <c r="L75" s="5">
         <v>2</v>
       </c>
-      <c r="M75" s="5"/>
+      <c r="M75" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I76" s="5">
         <v>2</v>
@@ -4600,30 +4672,32 @@
       <c r="L76" s="5">
         <v>2</v>
       </c>
-      <c r="M76" s="5"/>
+      <c r="M76" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I77" s="5">
         <v>3</v>
@@ -4637,32 +4711,34 @@
       <c r="L77" s="5">
         <v>2</v>
       </c>
-      <c r="M77" s="5"/>
+      <c r="M77" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="F78" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I78" s="5">
         <v>3</v>
@@ -4676,30 +4752,32 @@
       <c r="L78" s="5">
         <v>2</v>
       </c>
-      <c r="M78" s="5"/>
+      <c r="M78" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I79" s="5">
         <v>1</v>
@@ -4713,30 +4791,32 @@
       <c r="L79" s="5">
         <v>2</v>
       </c>
-      <c r="M79" s="5"/>
+      <c r="M79" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
@@ -4750,30 +4830,32 @@
       <c r="L80" s="5">
         <v>2</v>
       </c>
-      <c r="M80" s="5"/>
+      <c r="M80" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I81" s="5">
         <v>1</v>
@@ -4787,30 +4869,32 @@
       <c r="L81" s="5">
         <v>2</v>
       </c>
-      <c r="M81" s="5"/>
+      <c r="M81" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="5">
         <v>1</v>
@@ -4824,30 +4908,32 @@
       <c r="L82" s="5">
         <v>2</v>
       </c>
-      <c r="M82" s="5"/>
+      <c r="M82" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I83" s="5">
         <v>1</v>
@@ -4861,30 +4947,32 @@
       <c r="L83" s="5">
         <v>2</v>
       </c>
-      <c r="M83" s="5"/>
+      <c r="M83" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I84" s="5">
         <v>1</v>
@@ -4898,30 +4986,32 @@
       <c r="L84" s="5">
         <v>2</v>
       </c>
-      <c r="M84" s="5"/>
+      <c r="M84" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I85" s="5">
         <v>1</v>
@@ -4935,30 +5025,32 @@
       <c r="L85" s="5">
         <v>2</v>
       </c>
-      <c r="M85" s="5"/>
+      <c r="M85" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I86" s="5">
         <v>1</v>
@@ -4972,30 +5064,32 @@
       <c r="L86" s="5">
         <v>2</v>
       </c>
-      <c r="M86" s="5"/>
+      <c r="M86" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I87" s="5">
         <v>3</v>
@@ -5009,30 +5103,32 @@
       <c r="L87" s="5">
         <v>2</v>
       </c>
-      <c r="M87" s="5"/>
+      <c r="M87" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I88" s="5">
         <v>3</v>
@@ -5046,30 +5142,32 @@
       <c r="L88" s="5">
         <v>2</v>
       </c>
-      <c r="M88" s="5"/>
+      <c r="M88" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I89" s="5">
         <v>3</v>
@@ -5083,30 +5181,32 @@
       <c r="L89" s="5">
         <v>2</v>
       </c>
-      <c r="M89" s="5"/>
+      <c r="M89" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I90" s="5">
         <v>3</v>
@@ -5120,30 +5220,32 @@
       <c r="L90" s="5">
         <v>2</v>
       </c>
-      <c r="M90" s="5"/>
+      <c r="M90" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I91" s="5">
         <v>3</v>
@@ -5157,30 +5259,32 @@
       <c r="L91" s="5">
         <v>2</v>
       </c>
-      <c r="M91" s="5"/>
+      <c r="M91" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I92" s="5">
         <v>3</v>
@@ -5194,30 +5298,32 @@
       <c r="L92" s="5">
         <v>2</v>
       </c>
-      <c r="M92" s="5"/>
+      <c r="M92" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I93" s="5">
         <v>3</v>
@@ -5231,30 +5337,32 @@
       <c r="L93" s="5">
         <v>2</v>
       </c>
-      <c r="M93" s="5"/>
+      <c r="M93" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -5268,30 +5376,32 @@
       <c r="L94" s="5">
         <v>2</v>
       </c>
-      <c r="M94" s="5"/>
+      <c r="M94" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -5305,30 +5415,32 @@
       <c r="L95" s="5">
         <v>2</v>
       </c>
-      <c r="M95" s="5"/>
+      <c r="M95" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -5342,30 +5454,32 @@
       <c r="L96" s="5">
         <v>2</v>
       </c>
-      <c r="M96" s="5"/>
+      <c r="M96" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -5379,30 +5493,32 @@
       <c r="L97" s="5">
         <v>2</v>
       </c>
-      <c r="M97" s="5"/>
+      <c r="M97" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I98" s="5">
         <v>2</v>
@@ -5416,30 +5532,32 @@
       <c r="L98" s="5">
         <v>2</v>
       </c>
-      <c r="M98" s="5"/>
+      <c r="M98" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I99" s="5">
         <v>2</v>
@@ -5453,30 +5571,32 @@
       <c r="L99" s="5">
         <v>2</v>
       </c>
-      <c r="M99" s="5"/>
+      <c r="M99" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C100" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I100" s="5">
         <v>2</v>
@@ -5490,30 +5610,32 @@
       <c r="L100" s="5">
         <v>2</v>
       </c>
-      <c r="M100" s="5"/>
+      <c r="M100" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I101" s="5">
         <v>2</v>
@@ -5527,30 +5649,32 @@
       <c r="L101" s="5">
         <v>2</v>
       </c>
-      <c r="M101" s="5"/>
+      <c r="M101" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E102" s="14"/>
       <c r="F102" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I102" s="5">
         <v>2</v>
@@ -5564,30 +5688,32 @@
       <c r="L102" s="5">
         <v>2</v>
       </c>
-      <c r="M102" s="5"/>
+      <c r="M102" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:13" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A103" s="20">
         <v>102</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I103" s="21">
         <v>3</v>
@@ -5599,6 +5725,9 @@
         <v>1</v>
       </c>
       <c r="L103" s="21">
+        <v>2</v>
+      </c>
+      <c r="M103" s="21">
         <v>2</v>
       </c>
     </row>
@@ -5607,23 +5736,23 @@
         <v>103</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I104" s="21">
         <v>3</v>
@@ -5635,12 +5764,15 @@
         <v>1</v>
       </c>
       <c r="L104" s="21">
+        <v>2</v>
+      </c>
+      <c r="M104" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C107">
         <f>COUNTIF(C2:C102,"อาหารและเครื่องดื่ม")</f>
@@ -5649,7 +5781,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C108">
         <f>COUNTIF(C2:I107,"3")</f>
@@ -5658,7 +5790,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C109">
         <f>SUM(M2:M59)</f>
@@ -5681,21 +5813,21 @@
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="19"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C114" t="e">
         <f>LOOKUP(B54,B2:B59,D2:D59)</f>
         <v>#N/A</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="19"/>
@@ -5718,7 +5850,7 @@
     </row>
     <row r="119" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B119" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C119">
         <v>15</v>
@@ -5728,10 +5860,10 @@
     </row>
     <row r="120" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B120" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:C138" si="0">COUNTIF($C$2:$C$104,$B120)</f>
+        <f t="shared" ref="C120:C135" si="0">COUNTIF($C$2:$C$104,$B120)</f>
         <v>11</v>
       </c>
       <c r="F120" s="18"/>
@@ -5739,7 +5871,7 @@
     </row>
     <row r="121" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B121" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C121">
         <f t="shared" si="0"/>
@@ -5750,7 +5882,7 @@
     </row>
     <row r="122" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B122" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C122">
         <f t="shared" si="0"/>
@@ -5761,7 +5893,7 @@
     </row>
     <row r="123" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B123" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123">
         <f t="shared" si="0"/>
@@ -5772,7 +5904,7 @@
     </row>
     <row r="124" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B124" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C124">
         <f t="shared" si="0"/>
@@ -5783,7 +5915,7 @@
     </row>
     <row r="125" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B125" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C125">
         <f t="shared" si="0"/>
@@ -5794,7 +5926,7 @@
     </row>
     <row r="126" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B126" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C126">
         <f t="shared" si="0"/>
@@ -5805,7 +5937,7 @@
     </row>
     <row r="127" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C127">
         <f t="shared" si="0"/>
@@ -5816,7 +5948,7 @@
     </row>
     <row r="128" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B128" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C128">
         <f t="shared" si="0"/>
@@ -5827,7 +5959,7 @@
     </row>
     <row r="129" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B129" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C129">
         <f t="shared" si="0"/>
@@ -5838,7 +5970,7 @@
     </row>
     <row r="130" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B130" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C130">
         <f t="shared" si="0"/>
@@ -5847,7 +5979,7 @@
     </row>
     <row r="131" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B131" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C131">
         <f t="shared" si="0"/>
@@ -5856,7 +5988,7 @@
     </row>
     <row r="132" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B132" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C132">
         <f t="shared" si="0"/>
@@ -5865,85 +5997,67 @@
     </row>
     <row r="133" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B133" s="9" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C133">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B134" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C134">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B135" s="9" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C135">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B136" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B137" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B138" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B141" s="22" t="s">
+      <c r="B138" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" t="s">
+        <v>180</v>
+      </c>
+      <c r="E138" t="s">
         <v>181</v>
       </c>
-      <c r="C141" t="s">
-        <v>182</v>
-      </c>
-      <c r="D141" t="s">
-        <v>183</v>
-      </c>
-      <c r="E141" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>3</v>
-      </c>
-      <c r="D142">
-        <v>3</v>
-      </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="B147" s="23"/>
+    </row>
+    <row r="148" spans="2:2" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="B148" s="23"/>
+    </row>
+    <row r="149" spans="2:2" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="B149" s="23"/>
     </row>
     <row r="150" spans="2:2" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B150" s="23"/>
@@ -5996,18 +6110,9 @@
     <row r="166" spans="2:2" ht="18.75" x14ac:dyDescent="0.45">
       <c r="B166" s="23"/>
     </row>
-    <row r="167" spans="2:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B167" s="23"/>
-    </row>
-    <row r="168" spans="2:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B168" s="23"/>
-    </row>
-    <row r="169" spans="2:2" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="B169" s="23"/>
-    </row>
   </sheetData>
-  <sortState ref="B119:C138">
-    <sortCondition descending="1" ref="C119:C138"/>
+  <sortState ref="B119:C135">
+    <sortCondition descending="1" ref="C119:C135"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/กราฟ.xlsx
+++ b/กราฟ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{123CD438-D686-485A-9B50-B1F388B09B71}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F641287-596D-46D6-820A-92EF5020217B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1344,16 +1344,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>497417</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>24752</xdr:rowOff>
+      <xdr:rowOff>14169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>89204</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480788</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1660,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
